--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBE80C-AE49-FE4F-AEBA-63857E71A513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70155736-AA15-0B44-8463-2C92C99767D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAO" sheetId="1" r:id="rId1"/>
-    <sheet name="SGP" sheetId="2" r:id="rId2"/>
-    <sheet name="MAO_dt" sheetId="5" r:id="rId3"/>
-    <sheet name="SGP_dt" sheetId="4" r:id="rId4"/>
-    <sheet name="joint" sheetId="6" r:id="rId5"/>
-    <sheet name="XGB_udd" sheetId="7" r:id="rId6"/>
+    <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
+    <sheet name="MAO" sheetId="9" r:id="rId2"/>
+    <sheet name="SGP_0" sheetId="2" r:id="rId3"/>
+    <sheet name="SGP" sheetId="8" r:id="rId4"/>
+    <sheet name="MAO_dt" sheetId="5" r:id="rId5"/>
+    <sheet name="SGP_dt" sheetId="4" r:id="rId6"/>
+    <sheet name="joint" sheetId="6" r:id="rId7"/>
+    <sheet name="XGB_udd" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>TP</t>
   </si>
@@ -495,7 +497,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="219" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -683,11 +685,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22380775-CBD9-9E4E-8BF2-AD59C5ED7D21}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>937</v>
+      </c>
+      <c r="F2">
+        <v>0.82</v>
+      </c>
+      <c r="G2">
+        <v>0.86</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>965</v>
+      </c>
+      <c r="F3">
+        <v>0.74</v>
+      </c>
+      <c r="G3">
+        <v>0.91</v>
+      </c>
+      <c r="H3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>860</v>
+      </c>
+      <c r="F4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>182</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>789</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>0.72</v>
+      </c>
+      <c r="H5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <v>942</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>0.17</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E184684A-8A74-614E-B0F5-D60AAD62523B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -871,11 +1060,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03379B79-AA5C-B240-A10E-BC5678E4578A}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>348</v>
+      </c>
+      <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>4092</v>
+      </c>
+      <c r="F2">
+        <v>0.92</v>
+      </c>
+      <c r="G2">
+        <v>0.93</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>223</v>
+      </c>
+      <c r="E3">
+        <v>4064</v>
+      </c>
+      <c r="F3">
+        <v>0.77</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>229</v>
+      </c>
+      <c r="C4">
+        <v>780</v>
+      </c>
+      <c r="D4">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>3358</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>0.59</v>
+      </c>
+      <c r="H4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>298</v>
+      </c>
+      <c r="C5">
+        <v>543</v>
+      </c>
+      <c r="D5">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>3595</v>
+      </c>
+      <c r="F5">
+        <v>0.69</v>
+      </c>
+      <c r="G5">
+        <v>0.66</v>
+      </c>
+      <c r="H5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>341</v>
+      </c>
+      <c r="C6">
+        <v>2909</v>
+      </c>
+      <c r="D6">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>1229</v>
+      </c>
+      <c r="F6">
+        <v>0.32</v>
+      </c>
+      <c r="G6">
+        <v>0.52</v>
+      </c>
+      <c r="H6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BBA43B-74CD-484C-AD8E-A68F3DCB03DE}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1231,7 +1599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB193D2F-7178-6D4D-ABE0-FB57D4BCD5BF}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -1454,7 +1822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697AB238-E65B-A547-A105-FC283C2B7D8C}">
   <dimension ref="A1:H9"/>
   <sheetViews>

--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70155736-AA15-0B44-8463-2C92C99767D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9FB76-1467-A745-B2E2-69206C86F254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>TP</t>
   </si>
@@ -79,12 +79,6 @@
     <t>dilute dcape(0)</t>
   </si>
   <si>
-    <t>dilute dcape(116)</t>
-  </si>
-  <si>
-    <t>dilute dcape(16)</t>
-  </si>
-  <si>
     <t>SGP_SGP</t>
   </si>
   <si>
@@ -106,22 +100,16 @@
     <t>Joint_MAO</t>
   </si>
   <si>
-    <t>MAO</t>
-  </si>
-  <si>
-    <t>XGBoost_dd</t>
-  </si>
-  <si>
-    <t>XGBoost_udd</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>MLER(74%)</t>
-  </si>
-  <si>
-    <t>MLER(64%)</t>
+    <t>dilute dcape(62)</t>
+  </si>
+  <si>
+    <t>MLER(77%)</t>
+  </si>
+  <si>
+    <t>dilute dcape(37)</t>
+  </si>
+  <si>
+    <t>MLER(62%)</t>
   </si>
 </sst>
 </file>
@@ -175,11 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22380775-CBD9-9E4E-8BF2-AD59C5ED7D21}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -725,25 +714,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="F2">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="G2">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -751,25 +740,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="F3">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="G3">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="H3">
-        <v>0.69</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -780,13 +769,13 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>155</v>
       </c>
       <c r="E4">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F4">
         <v>0.55000000000000004</v>
@@ -803,25 +792,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>789</v>
+        <v>913</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="G5">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="H5">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -829,37 +818,50 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C6">
-        <v>942</v>
+        <v>963</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="H6">
         <v>0.5</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+    </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
@@ -1062,13 +1064,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03379B79-AA5C-B240-A10E-BC5678E4578A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1101,16 +1106,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>4092</v>
+        <v>4094</v>
       </c>
       <c r="F2">
         <v>0.92</v>
@@ -1127,25 +1132,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="E3">
-        <v>4064</v>
+        <v>4002</v>
       </c>
       <c r="F3">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="G3">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1153,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -1179,16 +1184,16 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C5">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E5">
-        <v>3595</v>
+        <v>3566</v>
       </c>
       <c r="F5">
         <v>0.69</v>
@@ -1205,19 +1210,19 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C6">
-        <v>2909</v>
+        <v>2992</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6">
-        <v>1229</v>
+        <v>1146</v>
       </c>
       <c r="F6">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="G6">
         <v>0.52</v>
@@ -1225,6 +1230,10 @@
       <c r="H6">
         <v>0.55000000000000004</v>
       </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
@@ -1233,6 +1242,17 @@
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1241,15 +1261,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BBA43B-74CD-484C-AD8E-A68F3DCB03DE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1283,25 +1303,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="H2">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1309,25 +1329,25 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>622</v>
+        <v>542</v>
       </c>
       <c r="F3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G3">
         <v>0.64</v>
       </c>
-      <c r="G3">
-        <v>0.66</v>
-      </c>
       <c r="H3">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1335,78 +1355,93 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F4">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="G4">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="H4">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="F6">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="G6">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="H6">
-        <v>0.96</v>
-      </c>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="206" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1457,16 +1492,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="F2">
         <v>0.92</v>
@@ -1483,25 +1518,25 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C3">
-        <v>830</v>
+        <v>701</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>3308</v>
+        <v>3437</v>
       </c>
       <c r="F3">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="G3">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="H3">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1509,71 +1544,71 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="C4">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="E4">
-        <v>3860</v>
+        <v>4002</v>
       </c>
       <c r="F4">
+        <v>0.79</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
         <v>0.78</v>
-      </c>
-      <c r="G4">
-        <v>0.75</v>
-      </c>
-      <c r="H4">
-        <v>0.83</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>3992</v>
       </c>
       <c r="F5">
+        <v>0.79</v>
+      </c>
+      <c r="G5">
         <v>0.8</v>
       </c>
-      <c r="G5">
-        <v>0.81</v>
-      </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>3231</v>
+        <v>3312</v>
       </c>
       <c r="F6">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G6">
         <v>0.97</v>
@@ -1592,7 +1627,31 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1601,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB193D2F-7178-6D4D-ABE0-FB57D4BCD5BF}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1637,19 +1696,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="F2">
         <v>0.92</v>
@@ -1663,97 +1722,97 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="H3">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C4">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E4">
-        <v>519</v>
+        <v>433</v>
       </c>
       <c r="F4">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G4">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="H4">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>624</v>
+        <v>353</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>3514</v>
+        <v>3785</v>
       </c>
       <c r="F5">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="G5">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>5073</v>
+        <v>5082</v>
       </c>
       <c r="F6">
         <v>0.91</v>
@@ -1767,19 +1826,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7">
-        <v>4088</v>
+        <v>4091</v>
       </c>
       <c r="F7">
         <v>0.91</v>
@@ -1793,29 +1852,56 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="F8">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G8">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="H8">
-        <v>0.87</v>
-      </c>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697AB238-E65B-A547-A105-FC283C2B7D8C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A3:I16"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A2" zoomScale="181" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1835,170 +1921,313 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>949</v>
+      </c>
+      <c r="F3">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>970</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>136</v>
+      </c>
+      <c r="H4">
+        <v>172</v>
+      </c>
+      <c r="I4">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5">
+        <v>862</v>
+      </c>
+      <c r="F5">
+        <v>228</v>
+      </c>
+      <c r="G5">
+        <v>779</v>
+      </c>
+      <c r="H5">
+        <v>194</v>
+      </c>
+      <c r="I5">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>163</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>913</v>
+      </c>
+      <c r="F6">
+        <v>304</v>
+      </c>
+      <c r="G6">
+        <v>572</v>
+      </c>
+      <c r="H6">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>197</v>
+      </c>
+      <c r="B7">
+        <v>963</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>158</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>943</v>
-      </c>
-      <c r="F3">
-        <v>0.9</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>163</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>936</v>
-      </c>
-      <c r="F4">
-        <v>0.9</v>
-      </c>
-      <c r="G4">
-        <v>0.9</v>
-      </c>
-      <c r="H4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>347</v>
+      </c>
+      <c r="G7">
+        <v>2992</v>
+      </c>
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <f>A3/1168</f>
+        <v>0.1464041095890411</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" ref="B12:D12" si="0">B3/1168</f>
+        <v>1.8835616438356163E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2260273972602738E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F3/4560</f>
+        <v>7.5657894736842105E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:I12" si="1">G3/4560</f>
+        <v>9.6491228070175444E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6885964912280702E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89780701754385961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <f t="shared" ref="A13:D13" si="2">A4/1168</f>
+        <v>9.9315068493150679E-2</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5616438356164379E-4</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>6.934931506849315E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83047945205479456</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:I13" si="3">F4/4560</f>
+        <v>5.4824561403508769E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9824561403508771E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7719298245614034E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87763157894736843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <f t="shared" ref="A14:D14" si="4">A5/1168</f>
+        <v>3.5958904109589039E-2</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
+        <v>9.3321917808219176E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1327054794520548</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73801369863013699</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:I14" si="5">F5/4560</f>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.17083333333333334</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2543859649122807E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7366228070175439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <f t="shared" ref="A15:D15" si="6">A6/1168</f>
+        <v>0.13955479452054795</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="6"/>
+        <v>4.965753424657534E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="6"/>
+        <v>2.9109589041095889E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78167808219178081</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:I15" si="7">F6/4560</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.12543859649122807</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5877192982456141E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.78201754385964917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <f t="shared" ref="A16:D16" si="8">A7/1168</f>
+        <v>0.16866438356164384</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="8"/>
+        <v>0.82448630136986301</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>346</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
-        <v>76</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4093</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>341</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>81</v>
-      </c>
-      <c r="E9">
-        <v>4094</v>
-      </c>
-      <c r="F9">
-        <v>0.92</v>
-      </c>
-      <c r="G9">
-        <v>0.93</v>
-      </c>
-      <c r="H9">
-        <v>0.9</v>
+      <c r="D16" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:I16" si="9">F7/4560</f>
+        <v>7.6096491228070176E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="9"/>
+        <v>0.65614035087719302</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6447368421052631E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25131578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9FB76-1467-A745-B2E2-69206C86F254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE36DC2-557A-D24B-8B83-75D6072D56FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BBA43B-74CD-484C-AD8E-A68F3DCB03DE}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1399,7 @@
         <v>0.91</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB193D2F-7178-6D4D-ABE0-FB57D4BCD5BF}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE36DC2-557A-D24B-8B83-75D6072D56FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277EC06-3830-B74C-8DF8-02306A069C83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="6" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
     <sheet name="MAO" sheetId="9" r:id="rId2"/>
     <sheet name="SGP_0" sheetId="2" r:id="rId3"/>
     <sheet name="SGP" sheetId="8" r:id="rId4"/>
-    <sheet name="MAO_dt" sheetId="5" r:id="rId5"/>
-    <sheet name="SGP_dt" sheetId="4" r:id="rId6"/>
-    <sheet name="joint" sheetId="6" r:id="rId7"/>
-    <sheet name="XGB_udd" sheetId="7" r:id="rId8"/>
+    <sheet name="MAO_dt_1" sheetId="11" r:id="rId5"/>
+    <sheet name="MAO_dt" sheetId="5" r:id="rId6"/>
+    <sheet name="SGP_dt_1" sheetId="10" r:id="rId7"/>
+    <sheet name="SGP_dt" sheetId="4" r:id="rId8"/>
+    <sheet name="dt" sheetId="12" r:id="rId9"/>
+    <sheet name="joint" sheetId="6" r:id="rId10"/>
+    <sheet name="XGB_udd" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>TP</t>
   </si>
@@ -110,6 +113,18 @@
   </si>
   <si>
     <t>MLER(62%)</t>
+  </si>
+  <si>
+    <t>SGP(77%)</t>
+  </si>
+  <si>
+    <t>MAO(62%)</t>
+  </si>
+  <si>
+    <t>MLER/62%</t>
+  </si>
+  <si>
+    <t>MLER/77%</t>
   </si>
 </sst>
 </file>
@@ -673,12 +688,589 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB193D2F-7178-6D4D-ABE0-FB57D4BCD5BF}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>345</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>4094</v>
+      </c>
+      <c r="F2">
+        <v>0.92</v>
+      </c>
+      <c r="G2">
+        <v>0.93</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>949</v>
+      </c>
+      <c r="F3">
+        <v>0.93</v>
+      </c>
+      <c r="G3">
+        <v>0.93</v>
+      </c>
+      <c r="H3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>538</v>
+      </c>
+      <c r="D4">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>433</v>
+      </c>
+      <c r="F4">
+        <v>0.43</v>
+      </c>
+      <c r="G4">
+        <v>0.52</v>
+      </c>
+      <c r="H4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>321</v>
+      </c>
+      <c r="C5">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>3785</v>
+      </c>
+      <c r="F5">
+        <v>0.76</v>
+      </c>
+      <c r="G5">
+        <v>0.73</v>
+      </c>
+      <c r="H5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>474</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>5082</v>
+      </c>
+      <c r="F6">
+        <v>0.91</v>
+      </c>
+      <c r="G6">
+        <v>0.93</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>343</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>4091</v>
+      </c>
+      <c r="F7">
+        <v>0.91</v>
+      </c>
+      <c r="G7">
+        <v>0.93</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>173</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>949</v>
+      </c>
+      <c r="F8">
+        <v>0.93</v>
+      </c>
+      <c r="G8">
+        <v>0.93</v>
+      </c>
+      <c r="H8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697AB238-E65B-A547-A105-FC283C2B7D8C}">
+  <dimension ref="A3:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="181" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>949</v>
+      </c>
+      <c r="F3">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>970</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>136</v>
+      </c>
+      <c r="H4">
+        <v>172</v>
+      </c>
+      <c r="I4">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>155</v>
+      </c>
+      <c r="D5">
+        <v>862</v>
+      </c>
+      <c r="F5">
+        <v>228</v>
+      </c>
+      <c r="G5">
+        <v>779</v>
+      </c>
+      <c r="H5">
+        <v>194</v>
+      </c>
+      <c r="I5">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>163</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>913</v>
+      </c>
+      <c r="F6">
+        <v>304</v>
+      </c>
+      <c r="G6">
+        <v>572</v>
+      </c>
+      <c r="H6">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>197</v>
+      </c>
+      <c r="B7">
+        <v>963</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>347</v>
+      </c>
+      <c r="G7">
+        <v>2992</v>
+      </c>
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <f>A3/1168</f>
+        <v>0.1464041095890411</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" ref="B12:D12" si="0">B3/1168</f>
+        <v>1.8835616438356163E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2260273972602738E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F3/4560</f>
+        <v>7.5657894736842105E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:I12" si="1">G3/4560</f>
+        <v>9.6491228070175444E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6885964912280702E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89780701754385961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <f t="shared" ref="A13:D13" si="2">A4/1168</f>
+        <v>9.9315068493150679E-2</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5616438356164379E-4</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>6.934931506849315E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83047945205479456</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:I13" si="3">F4/4560</f>
+        <v>5.4824561403508769E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9824561403508771E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7719298245614034E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87763157894736843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <f t="shared" ref="A14:D14" si="4">A5/1168</f>
+        <v>3.5958904109589039E-2</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
+        <v>9.3321917808219176E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1327054794520548</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73801369863013699</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:I14" si="5">F5/4560</f>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.17083333333333334</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2543859649122807E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7366228070175439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <f t="shared" ref="A15:D15" si="6">A6/1168</f>
+        <v>0.13955479452054795</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="6"/>
+        <v>4.965753424657534E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="6"/>
+        <v>2.9109589041095889E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78167808219178081</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:I15" si="7">F6/4560</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.12543859649122807</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="7"/>
+        <v>2.5877192982456141E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>0.78201754385964917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <f t="shared" ref="A16:D16" si="8">A7/1168</f>
+        <v>0.16866438356164384</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="8"/>
+        <v>0.82448630136986301</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="8"/>
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:I16" si="9">F7/4560</f>
+        <v>7.6096491228070176E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="9"/>
+        <v>0.65614035087719302</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="9"/>
+        <v>1.6447368421052631E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25131578947368421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22380775-CBD9-9E4E-8BF2-AD59C5ED7D21}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1260,11 +1852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BBA43B-74CD-484C-AD8E-A68F3DCB03DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED292EDB-101B-CD49-A451-74D1392C581A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1302,109 +1894,61 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>171</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>949</v>
-      </c>
       <c r="F2">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="H2">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>184</v>
-      </c>
-      <c r="C3">
-        <v>429</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>542</v>
-      </c>
       <c r="F3">
         <v>0.57999999999999996</v>
       </c>
       <c r="G3">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>81</v>
-      </c>
-      <c r="E4">
-        <v>970</v>
-      </c>
       <c r="F4">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>159</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>944</v>
-      </c>
       <c r="F5">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="G5">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="H5">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>116</v>
@@ -1449,11 +1993,199 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BBA43B-74CD-484C-AD8E-A68F3DCB03DE}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>171</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>949</v>
+      </c>
+      <c r="F2">
+        <v>0.93</v>
+      </c>
+      <c r="G2">
+        <v>0.93</v>
+      </c>
+      <c r="H2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>429</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>542</v>
+      </c>
+      <c r="F3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.64</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>970</v>
+      </c>
+      <c r="F4">
+        <v>0.85</v>
+      </c>
+      <c r="G4">
+        <v>0.96</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>944</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>0.91</v>
+      </c>
+      <c r="H5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>116</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>603</v>
+      </c>
+      <c r="F6">
+        <v>0.99</v>
+      </c>
+      <c r="G6">
+        <v>0.99</v>
+      </c>
+      <c r="H6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E0DDDB-A8E8-6B4A-9B00-2A1468FB781C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1491,109 +2223,61 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>345</v>
-      </c>
-      <c r="C2">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>77</v>
-      </c>
-      <c r="E2">
-        <v>4094</v>
-      </c>
       <c r="F2">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
         <v>0.93</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>348</v>
-      </c>
-      <c r="C3">
-        <v>701</v>
-      </c>
-      <c r="D3">
-        <v>74</v>
-      </c>
-      <c r="E3">
-        <v>3437</v>
-      </c>
       <c r="F3">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="H3">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>172</v>
-      </c>
-      <c r="E4">
-        <v>4002</v>
-      </c>
       <c r="F4">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="H4">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>255</v>
-      </c>
-      <c r="C5">
-        <v>146</v>
-      </c>
-      <c r="D5">
-        <v>167</v>
-      </c>
-      <c r="E5">
-        <v>3992</v>
-      </c>
       <c r="F5">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="H5">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -1658,12 +2342,222 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB193D2F-7178-6D4D-ABE0-FB57D4BCD5BF}">
-  <dimension ref="A1:H17"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>345</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>4094</v>
+      </c>
+      <c r="F2">
+        <v>0.92</v>
+      </c>
+      <c r="G2">
+        <v>0.93</v>
+      </c>
+      <c r="H2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>348</v>
+      </c>
+      <c r="C3">
+        <v>701</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>3437</v>
+      </c>
+      <c r="F3">
+        <v>0.69</v>
+      </c>
+      <c r="G3">
+        <v>0.66</v>
+      </c>
+      <c r="H3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>136</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>4002</v>
+      </c>
+      <c r="F4">
+        <v>0.79</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>3992</v>
+      </c>
+      <c r="F5">
+        <v>0.79</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>129</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>3312</v>
+      </c>
+      <c r="F6">
+        <v>0.89</v>
+      </c>
+      <c r="G6">
+        <v>0.97</v>
+      </c>
+      <c r="H6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A79A3-1E1F-9045-8C6F-D14D5D6B26A2}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1696,538 +2590,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>4094</v>
+        <v>3312</v>
       </c>
       <c r="F2">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="G2">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>949</v>
+        <v>603</v>
       </c>
       <c r="F3">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="H3">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>538</v>
-      </c>
-      <c r="D4">
-        <v>76</v>
-      </c>
-      <c r="E4">
-        <v>433</v>
-      </c>
-      <c r="F4">
-        <v>0.43</v>
-      </c>
-      <c r="G4">
-        <v>0.52</v>
-      </c>
-      <c r="H4">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>321</v>
-      </c>
-      <c r="C5">
-        <v>353</v>
-      </c>
-      <c r="D5">
-        <v>101</v>
-      </c>
-      <c r="E5">
-        <v>3785</v>
-      </c>
-      <c r="F5">
-        <v>0.76</v>
-      </c>
-      <c r="G5">
-        <v>0.73</v>
-      </c>
-      <c r="H5">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>474</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>112</v>
-      </c>
-      <c r="E6">
-        <v>5082</v>
-      </c>
-      <c r="F6">
-        <v>0.91</v>
-      </c>
-      <c r="G6">
-        <v>0.93</v>
-      </c>
-      <c r="H6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>343</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>79</v>
-      </c>
-      <c r="E7">
-        <v>4091</v>
-      </c>
-      <c r="F7">
-        <v>0.91</v>
-      </c>
-      <c r="G7">
-        <v>0.93</v>
-      </c>
-      <c r="H7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>173</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>949</v>
-      </c>
-      <c r="F8">
-        <v>0.93</v>
-      </c>
-      <c r="G8">
-        <v>0.93</v>
-      </c>
-      <c r="H8">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697AB238-E65B-A547-A105-FC283C2B7D8C}">
-  <dimension ref="A3:I16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="181" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>171</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>949</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
-      </c>
-      <c r="G3">
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <v>77</v>
-      </c>
-      <c r="I3">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>116</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>81</v>
-      </c>
-      <c r="D4">
-        <v>970</v>
-      </c>
-      <c r="F4">
-        <v>250</v>
-      </c>
-      <c r="G4">
-        <v>136</v>
-      </c>
-      <c r="H4">
-        <v>172</v>
-      </c>
-      <c r="I4">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>109</v>
-      </c>
-      <c r="C5">
-        <v>155</v>
-      </c>
-      <c r="D5">
-        <v>862</v>
-      </c>
-      <c r="F5">
-        <v>228</v>
-      </c>
-      <c r="G5">
-        <v>779</v>
-      </c>
-      <c r="H5">
-        <v>194</v>
-      </c>
-      <c r="I5">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>163</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>913</v>
-      </c>
-      <c r="F6">
-        <v>304</v>
-      </c>
-      <c r="G6">
-        <v>572</v>
-      </c>
-      <c r="H6">
-        <v>118</v>
-      </c>
-      <c r="I6">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>197</v>
-      </c>
-      <c r="B7">
-        <v>963</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>347</v>
-      </c>
-      <c r="G7">
-        <v>2992</v>
-      </c>
-      <c r="H7">
-        <v>75</v>
-      </c>
-      <c r="I7">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <f>A3/1168</f>
-        <v>0.1464041095890411</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" ref="B12:D12" si="0">B3/1168</f>
-        <v>1.8835616438356163E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2260273972602738E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F3/4560</f>
-        <v>7.5657894736842105E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12:I12" si="1">G3/4560</f>
-        <v>9.6491228070175444E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6885964912280702E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.89780701754385961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
-        <f t="shared" ref="A13:D13" si="2">A4/1168</f>
-        <v>9.9315068493150679E-2</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="2"/>
-        <v>8.5616438356164379E-4</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="2"/>
-        <v>6.934931506849315E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.83047945205479456</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" ref="F13:I13" si="3">F4/4560</f>
-        <v>5.4824561403508769E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9824561403508771E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="3"/>
-        <v>3.7719298245614034E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.87763157894736843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <f t="shared" ref="A14:D14" si="4">A5/1168</f>
-        <v>3.5958904109589039E-2</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="4"/>
-        <v>9.3321917808219176E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="4"/>
-        <v>0.1327054794520548</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="4"/>
-        <v>0.73801369863013699</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:I14" si="5">F5/4560</f>
-        <v>0.05</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="5"/>
-        <v>0.17083333333333334</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="5"/>
-        <v>4.2543859649122807E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="5"/>
-        <v>0.7366228070175439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
-        <f t="shared" ref="A15:D15" si="6">A6/1168</f>
-        <v>0.13955479452054795</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="6"/>
-        <v>4.965753424657534E-2</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="6"/>
-        <v>2.9109589041095889E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.78167808219178081</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" ref="F15:I15" si="7">F6/4560</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.12543859649122807</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="7"/>
-        <v>2.5877192982456141E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="7"/>
-        <v>0.78201754385964917</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4">
-        <f t="shared" ref="A16:D16" si="8">A7/1168</f>
-        <v>0.16866438356164384</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="8"/>
-        <v>0.82448630136986301</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="8"/>
-        <v>6.8493150684931503E-3</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16:I16" si="9">F7/4560</f>
-        <v>7.6096491228070176E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="9"/>
-        <v>0.65614035087719302</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="9"/>
-        <v>1.6447368421052631E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="9"/>
-        <v>0.25131578947368421</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277EC06-3830-B74C-8DF8-02306A069C83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B69C92-EC02-404C-BDB8-95E3C6140B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="6" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="7" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
   <si>
     <t>TP</t>
   </si>
@@ -106,13 +106,7 @@
     <t>dilute dcape(62)</t>
   </si>
   <si>
-    <t>MLER(77%)</t>
-  </si>
-  <si>
     <t>dilute dcape(37)</t>
-  </si>
-  <si>
-    <t>MLER(62%)</t>
   </si>
   <si>
     <t>SGP(77%)</t>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0.99</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>116</v>
@@ -1997,7 +1991,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2111,7 +2105,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>159</v>
@@ -2137,7 +2131,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>116</v>
@@ -2184,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E0DDDB-A8E8-6B4A-9B00-2A1468FB781C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2277,7 +2271,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -2346,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2487,7 +2481,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -2590,7 +2584,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>129</v>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>116</v>

--- a/ML/dmpdz.xlsx
+++ b/ML/dmpdz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtao/Nutstore/convection and cloud/trigger/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B69C92-EC02-404C-BDB8-95E3C6140B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277EC06-3830-B74C-8DF8-02306A069C83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="7" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="6" xr2:uid="{328C0191-61B8-134C-B05A-4DE7B34702B0}"/>
   </bookViews>
   <sheets>
     <sheet name="MAO_0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>TP</t>
   </si>
@@ -106,7 +106,13 @@
     <t>dilute dcape(62)</t>
   </si>
   <si>
+    <t>MLER(77%)</t>
+  </si>
+  <si>
     <t>dilute dcape(37)</t>
+  </si>
+  <si>
+    <t>MLER(62%)</t>
   </si>
   <si>
     <t>SGP(77%)</t>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.99</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>116</v>
@@ -1991,7 +1997,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2105,7 +2111,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>159</v>
@@ -2131,7 +2137,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>116</v>
@@ -2178,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E0DDDB-A8E8-6B4A-9B00-2A1468FB781C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2271,7 +2277,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -2340,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB43F6D0-3527-E047-8FBE-1FE0DDED7B51}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2481,7 +2487,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>129</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>116</v>
